--- a/PROMPTS/merged.xlsx
+++ b/PROMPTS/merged.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10928"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Marc/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2F78911-35D4-244B-BC08-ECC806F46A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="1451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1972" uniqueCount="1431">
   <si>
     <t>Prompt</t>
   </si>
@@ -5046,72 +5052,6 @@
     <t>What is the relationship type for Emily Walker's Life Insurance?</t>
   </si>
   <si>
-    <t>Change raised to retire App_31. Stakeholders (Joseph Johnson, Mary Sims) notified. Evidence attached citing IT Governance Policy (Active; Compliance Officer approval; last review 2024-11-16). Target retire window set post-backup; mapping T34407 / 68805132 captured for de-allocation. Sources: 03_c2_cmdb_data.xlsx; 09_c2_policies.xlsx.</t>
-  </si>
-  <si>
-    <t>Confirmed: Transaction Monitoring remains scheduled from a legacy pipeline. I’ve disabled future schedules and opened an action to either re-activate or fully decommission based on risk sign-off. Last successful execution was 2025-09-15. Sources: 10_c2_processes.xlsx.</t>
-  </si>
-  <si>
-    <t>Gap identified: KYC Verification is deprecated while KYC Policy is active. Recommendation: re-enable the process with updated controls aligned to the policy; schedule a pilot run before month end; obtain Board approval per policy governance. Last run noted 2025-09-14; policy last reviewed 2024-10-18. Sources: 10_c2_processes.xlsx; 09_c2_policies.xlsx.</t>
-  </si>
-  <si>
-    <t>Custodianship for App_37 reassigned from Daniel Taylor; owner Miguel Fitzgerald unchanged. CMDB updated for T78221 and Cost Center B7018226. On-call rotations synced with the new custodian. Sources: 03_c2_cmdb_data.xlsx.</t>
-  </si>
-  <si>
-    <t>Yes—created a grouped closure plan for App_10 and App_73 with owner Erin Johnson. We’ll snapshot configs (T20125, T64770) and request finance to release 33276269 / B1730899 once backups complete. Sources: 03_c2_cmdb_data.xlsx.</t>
-  </si>
-  <si>
-    <t>Approved to reassign Password Reset from HR Department to IT Department. We’ll keep the Daily cadence, target Fully Automated within two sprints, and update the RACI after the handover. Sources: 10_c2_processes.xlsx.</t>
-  </si>
-  <si>
-    <t>Comms drafted: ‘Effective immediately, Privacy Protection Policy is Retired (Owner: Operations; Approved by Operations Head; Last review 2025-02-08).’ Temporary controls remain via Data Security and AML frameworks; teams must route new requests to Compliance for case-by-case guidance. Sources: 09_c2_policies.xlsx.</t>
-  </si>
-  <si>
-    <t>Logged risk for App_18 with owners Alex Williams / Brian Schneider. Until Operational Risk Policy review closes, we’ll isolate Production access, document T72471, and ring-fence B6175983 budget for remediation. Sources: 03_c2_cmdb_data.xlsx; 09_c2_policies.xlsx.</t>
-  </si>
-  <si>
-    <t>Shortlist created for Acceptance:
-- App_1 — T17113 / 17936627
-- App_3 — T45853 / 76137714
-- App_23 — T84323 / B4296144
-- App_26 — T63875 / 87061849
-- App_29 — T09360 / 56485233
-Next steps: disable feeds, export configs, raise bulk CR. Sources: 03_c2_cmdb_data.xlsx.</t>
-  </si>
-  <si>
-    <t>Checked: Mobile App Update has no runtime dependency on Customer Onboarding. Safe to proceed with pipeline upgrade; we’ll keep a rollback plan as Customer Onboarding is Deprecated. Last Mobile App Update execution 2025-09-15. Sources: 10_c2_processes.xlsx.</t>
-  </si>
-  <si>
-    <t>Reason: tooling end-of-life prompted a temporary deprecation of AML Screening pending policy-aligned replacement. I’ve escalated to Compliance to align the Under Review policy with an interim control set. Last process run 2025-08-31; policy review 2024-12-18. Sources: 10_c2_processes.xlsx; 09_c2_policies.xlsx.</t>
-  </si>
-  <si>
-    <t>Pilot scope: digitize intake, auto-route approvals, and integrate supplier master for Vendor Management. KPIs: cycle-time ↓ 40%, touch-time ↓ 60%, SLA adherence ≥ 98%. Baseline from last execution 2025-08-20. Sources: 10_c2_processes.xlsx.</t>
-  </si>
-  <si>
-    <t>Ownership of Data Backup reassigned to IT Department. Interim control set: weekly schedule, success notifications to SRE, and audit trail enabled. Last manual run was 2025-09-06. Sources: 10_c2_processes.xlsx.</t>
-  </si>
-  <si>
-    <t>For Interest Calculation, a single missed daily run risks one day of accrual discrepancies; downstream statements would reflect corrected balances on the next cycle. Recommend canary checks and auto-rerun to contain exposure. Last success: 2025-09-02. Sources: 10_c2_processes.xlsx.</t>
-  </si>
-  <si>
-    <t>Access request raised for App_70 with approvals to Donald Adams and Brian Schneider; governance tied to Customer Service Policy (Active; Board approval; last review 2024-12-27). Access will auto-expire after 7 days. Sources: 03_c2_cmdb_data.xlsx; 09_c2_policies.xlsx.</t>
-  </si>
-  <si>
-    <t>Change window closed for App_53; config T14899 and Cost B8089966 tagged in the freeze record. Transaction Monitoring schedules remain disabled until the window lifts. Sources: 03_c2_cmdb_data.xlsx; 10_c2_processes.xlsx.</t>
-  </si>
-  <si>
-    <t>Update: Customer Complaint Handling remains Active and Fully Automated, enabling instant case creation. Last run 2025-09-11. Median response time improved by &gt;30% due to auto-triage and templated outreach. Sources: 10_c2_processes.xlsx.</t>
-  </si>
-  <si>
-    <t>Logged a DQ ticket to review policy taxonomy. Examples attached: Credit Risk Policy currently categorized as Security; Data Security Policy categorized as Credit—both need correction to expected domains. Sources: 09_c2_policies.xlsx.</t>
-  </si>
-  <si>
-    <t>Assessed: Loan Origination remains Active with no hard dependency on Loan Approval Policy artifacts. We’ll issue a temporary procedural standard and align with IT Governance Policy until a successor policy is approved. Sources: 10_c2_processes.xlsx; 09_c2_policies.xlsx.</t>
-  </si>
-  <si>
-    <t>Paging validated for App_95: primary Cory Griffin, secondary Wendy Mcneil. Runbook link added to rotation notes. Sources: 03_c2_cmdb_data.xlsx.</t>
-  </si>
-  <si>
     <t>Yes, VM-PH-25 is currently in production. It was deployed on 2020-09-22, and the associated design document is DOCTYOJ63.</t>
   </si>
   <si>
@@ -5187,8 +5127,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5251,13 +5191,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5295,7 +5243,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -5329,6 +5277,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -5363,9 +5312,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5538,14 +5488,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G398"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B316" workbookViewId="0">
+      <selection activeCell="A339" sqref="A339:A378"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="93.33203125" customWidth="1"/>
+    <col min="2" max="2" width="101.33203125" customWidth="1"/>
+    <col min="3" max="3" width="61" customWidth="1"/>
+    <col min="4" max="4" width="51.1640625" customWidth="1"/>
+    <col min="5" max="5" width="30.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5568,7 +5527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -5585,7 +5544,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -5602,7 +5561,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -5619,7 +5578,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -5636,7 +5595,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -5653,7 +5612,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -5670,7 +5629,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -5687,7 +5646,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -5704,7 +5663,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -5721,7 +5680,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -5738,7 +5697,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -5755,7 +5714,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -5772,7 +5731,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -5789,7 +5748,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -5806,7 +5765,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -5823,7 +5782,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -5840,7 +5799,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -5857,7 +5816,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -5874,7 +5833,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -5891,7 +5850,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -5908,7 +5867,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -5925,7 +5884,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -5942,7 +5901,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -5959,7 +5918,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -5976,7 +5935,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -5993,7 +5952,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -6010,7 +5969,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -6027,7 +5986,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -6044,7 +6003,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -6061,7 +6020,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -6078,7 +6037,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -6095,7 +6054,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -6112,7 +6071,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -6129,7 +6088,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -6146,7 +6105,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -6163,7 +6122,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -6180,7 +6139,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -6197,7 +6156,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -6214,7 +6173,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -6231,7 +6190,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -6248,7 +6207,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -6265,7 +6224,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -6282,7 +6241,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -6299,7 +6258,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -6316,7 +6275,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -6333,7 +6292,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -6350,7 +6309,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -6367,7 +6326,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -6384,7 +6343,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -6401,7 +6360,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -6418,7 +6377,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -6435,7 +6394,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -6452,7 +6411,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -6469,7 +6428,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -6486,7 +6445,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -6503,7 +6462,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -6520,7 +6479,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -6537,7 +6496,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -6554,7 +6513,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -6571,7 +6530,10 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>1311</v>
+      </c>
       <c r="B61" t="s">
         <v>335</v>
       </c>
@@ -6584,11 +6546,11 @@
       <c r="E61" t="s">
         <v>1294</v>
       </c>
-      <c r="F61" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>1312</v>
+      </c>
       <c r="B62" t="s">
         <v>336</v>
       </c>
@@ -6601,11 +6563,11 @@
       <c r="E62" t="s">
         <v>1294</v>
       </c>
-      <c r="F62" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>1313</v>
+      </c>
       <c r="B63" t="s">
         <v>337</v>
       </c>
@@ -6618,11 +6580,11 @@
       <c r="E63" t="s">
         <v>1294</v>
       </c>
-      <c r="F63" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>1314</v>
+      </c>
       <c r="B64" t="s">
         <v>338</v>
       </c>
@@ -6635,11 +6597,11 @@
       <c r="E64" t="s">
         <v>1294</v>
       </c>
-      <c r="F64" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>1315</v>
+      </c>
       <c r="B65" t="s">
         <v>339</v>
       </c>
@@ -6652,11 +6614,11 @@
       <c r="E65" t="s">
         <v>1294</v>
       </c>
-      <c r="F65" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>1316</v>
+      </c>
       <c r="B66" t="s">
         <v>340</v>
       </c>
@@ -6669,11 +6631,11 @@
       <c r="E66" t="s">
         <v>1294</v>
       </c>
-      <c r="F66" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>1317</v>
+      </c>
       <c r="B67" t="s">
         <v>341</v>
       </c>
@@ -6686,11 +6648,11 @@
       <c r="E67" t="s">
         <v>1294</v>
       </c>
-      <c r="F67" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>1318</v>
+      </c>
       <c r="B68" t="s">
         <v>342</v>
       </c>
@@ -6703,11 +6665,11 @@
       <c r="E68" t="s">
         <v>1294</v>
       </c>
-      <c r="F68" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>1319</v>
+      </c>
       <c r="B69" t="s">
         <v>343</v>
       </c>
@@ -6720,11 +6682,11 @@
       <c r="E69" t="s">
         <v>1294</v>
       </c>
-      <c r="F69" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>1320</v>
+      </c>
       <c r="B70" t="s">
         <v>344</v>
       </c>
@@ -6737,11 +6699,11 @@
       <c r="E70" t="s">
         <v>1294</v>
       </c>
-      <c r="F70" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>1321</v>
+      </c>
       <c r="B71" t="s">
         <v>345</v>
       </c>
@@ -6754,11 +6716,11 @@
       <c r="E71" t="s">
         <v>1294</v>
       </c>
-      <c r="F71" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>1322</v>
+      </c>
       <c r="B72" t="s">
         <v>346</v>
       </c>
@@ -6771,11 +6733,11 @@
       <c r="E72" t="s">
         <v>1294</v>
       </c>
-      <c r="F72" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>1323</v>
+      </c>
       <c r="B73" t="s">
         <v>347</v>
       </c>
@@ -6788,11 +6750,11 @@
       <c r="E73" t="s">
         <v>1294</v>
       </c>
-      <c r="F73" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>1324</v>
+      </c>
       <c r="B74" t="s">
         <v>348</v>
       </c>
@@ -6805,11 +6767,11 @@
       <c r="E74" t="s">
         <v>1294</v>
       </c>
-      <c r="F74" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>1325</v>
+      </c>
       <c r="B75" t="s">
         <v>349</v>
       </c>
@@ -6822,11 +6784,11 @@
       <c r="E75" t="s">
         <v>1294</v>
       </c>
-      <c r="F75" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>1326</v>
+      </c>
       <c r="B76" t="s">
         <v>350</v>
       </c>
@@ -6839,11 +6801,11 @@
       <c r="E76" t="s">
         <v>1294</v>
       </c>
-      <c r="F76" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>1327</v>
+      </c>
       <c r="B77" t="s">
         <v>351</v>
       </c>
@@ -6856,11 +6818,11 @@
       <c r="E77" t="s">
         <v>1294</v>
       </c>
-      <c r="F77" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>1328</v>
+      </c>
       <c r="B78" t="s">
         <v>352</v>
       </c>
@@ -6873,11 +6835,11 @@
       <c r="E78" t="s">
         <v>1294</v>
       </c>
-      <c r="F78" t="s">
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>1329</v>
+      </c>
       <c r="B79" t="s">
         <v>353</v>
       </c>
@@ -6890,11 +6852,11 @@
       <c r="E79" t="s">
         <v>1294</v>
       </c>
-      <c r="F79" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>1330</v>
+      </c>
       <c r="B80" t="s">
         <v>354</v>
       </c>
@@ -6907,11 +6869,8 @@
       <c r="E80" t="s">
         <v>1294</v>
       </c>
-      <c r="F80" t="s">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>66</v>
       </c>
@@ -6928,7 +6887,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>67</v>
       </c>
@@ -6945,7 +6904,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>68</v>
       </c>
@@ -6962,7 +6921,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>69</v>
       </c>
@@ -6979,7 +6938,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>70</v>
       </c>
@@ -6996,7 +6955,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>71</v>
       </c>
@@ -7013,7 +6972,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>49</v>
       </c>
@@ -7030,7 +6989,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>72</v>
       </c>
@@ -7047,7 +7006,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>73</v>
       </c>
@@ -7064,7 +7023,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>74</v>
       </c>
@@ -7081,7 +7040,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>75</v>
       </c>
@@ -7098,7 +7057,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>76</v>
       </c>
@@ -7115,7 +7074,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>77</v>
       </c>
@@ -7132,7 +7091,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>78</v>
       </c>
@@ -7149,7 +7108,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>79</v>
       </c>
@@ -7166,7 +7125,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>80</v>
       </c>
@@ -7183,7 +7142,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>81</v>
       </c>
@@ -7200,7 +7159,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>82</v>
       </c>
@@ -7217,7 +7176,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>83</v>
       </c>
@@ -7234,7 +7193,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>84</v>
       </c>
@@ -7251,7 +7210,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>85</v>
       </c>
@@ -7268,7 +7227,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>86</v>
       </c>
@@ -7285,7 +7244,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>87</v>
       </c>
@@ -7302,7 +7261,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>88</v>
       </c>
@@ -7319,7 +7278,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>89</v>
       </c>
@@ -7336,7 +7295,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>90</v>
       </c>
@@ -7353,7 +7312,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>91</v>
       </c>
@@ -7370,7 +7329,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>92</v>
       </c>
@@ -7387,7 +7346,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>93</v>
       </c>
@@ -7404,7 +7363,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>94</v>
       </c>
@@ -7421,7 +7380,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>95</v>
       </c>
@@ -7438,7 +7397,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>96</v>
       </c>
@@ -7455,7 +7414,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>97</v>
       </c>
@@ -7472,7 +7431,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>98</v>
       </c>
@@ -7489,7 +7448,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>99</v>
       </c>
@@ -7506,7 +7465,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>100</v>
       </c>
@@ -7523,7 +7482,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>101</v>
       </c>
@@ -7540,7 +7499,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>102</v>
       </c>
@@ -7557,7 +7516,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>103</v>
       </c>
@@ -7574,7 +7533,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>104</v>
       </c>
@@ -7591,7 +7550,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>105</v>
       </c>
@@ -7608,7 +7567,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>106</v>
       </c>
@@ -7625,7 +7584,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>107</v>
       </c>
@@ -7642,7 +7601,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>108</v>
       </c>
@@ -7659,7 +7618,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>109</v>
       </c>
@@ -7676,7 +7635,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>110</v>
       </c>
@@ -7693,7 +7652,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>111</v>
       </c>
@@ -7710,7 +7669,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>62</v>
       </c>
@@ -7727,7 +7686,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>112</v>
       </c>
@@ -7744,7 +7703,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>113</v>
       </c>
@@ -7761,7 +7720,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>65</v>
       </c>
@@ -7778,7 +7737,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>114</v>
       </c>
@@ -7795,7 +7754,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>115</v>
       </c>
@@ -7812,7 +7771,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>116</v>
       </c>
@@ -7829,7 +7788,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>117</v>
       </c>
@@ -7846,7 +7805,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>118</v>
       </c>
@@ -7863,7 +7822,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>119</v>
       </c>
@@ -7880,7 +7839,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>120</v>
       </c>
@@ -7897,7 +7856,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>121</v>
       </c>
@@ -7914,7 +7873,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>122</v>
       </c>
@@ -7931,7 +7890,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>123</v>
       </c>
@@ -7948,7 +7907,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>124</v>
       </c>
@@ -7965,7 +7924,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>125</v>
       </c>
@@ -7982,7 +7941,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>126</v>
       </c>
@@ -7999,7 +7958,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>127</v>
       </c>
@@ -8016,7 +7975,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>128</v>
       </c>
@@ -8033,7 +7992,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>129</v>
       </c>
@@ -8050,7 +8009,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>130</v>
       </c>
@@ -8067,7 +8026,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>131</v>
       </c>
@@ -8084,7 +8043,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>132</v>
       </c>
@@ -8101,7 +8060,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>18</v>
       </c>
@@ -8118,7 +8077,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>133</v>
       </c>
@@ -8135,7 +8094,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>134</v>
       </c>
@@ -8152,7 +8111,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>19</v>
       </c>
@@ -8169,7 +8128,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>20</v>
       </c>
@@ -8186,7 +8145,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>135</v>
       </c>
@@ -8203,7 +8162,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>136</v>
       </c>
@@ -8220,7 +8179,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>137</v>
       </c>
@@ -8237,7 +8196,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>71</v>
       </c>
@@ -8254,7 +8213,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>49</v>
       </c>
@@ -8271,7 +8230,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>73</v>
       </c>
@@ -8288,7 +8247,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>72</v>
       </c>
@@ -8305,7 +8264,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>74</v>
       </c>
@@ -8322,7 +8281,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>138</v>
       </c>
@@ -8339,7 +8298,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>139</v>
       </c>
@@ -8356,7 +8315,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>140</v>
       </c>
@@ -8373,7 +8332,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>141</v>
       </c>
@@ -8390,7 +8349,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>142</v>
       </c>
@@ -8407,7 +8366,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>143</v>
       </c>
@@ -8424,7 +8383,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>144</v>
       </c>
@@ -8441,7 +8400,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>145</v>
       </c>
@@ -8458,7 +8417,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>146</v>
       </c>
@@ -8475,7 +8434,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>13</v>
       </c>
@@ -8492,7 +8451,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>147</v>
       </c>
@@ -8509,7 +8468,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>148</v>
       </c>
@@ -8526,7 +8485,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>149</v>
       </c>
@@ -8543,7 +8502,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>150</v>
       </c>
@@ -8560,7 +8519,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>151</v>
       </c>
@@ -8577,7 +8536,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>152</v>
       </c>
@@ -8594,7 +8553,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>153</v>
       </c>
@@ -8611,7 +8570,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>154</v>
       </c>
@@ -8628,7 +8587,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>155</v>
       </c>
@@ -8645,7 +8604,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>156</v>
       </c>
@@ -8662,7 +8621,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>157</v>
       </c>
@@ -8679,7 +8638,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>158</v>
       </c>
@@ -8696,7 +8655,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>159</v>
       </c>
@@ -8713,7 +8672,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>73</v>
       </c>
@@ -8730,7 +8689,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>74</v>
       </c>
@@ -8747,7 +8706,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>160</v>
       </c>
@@ -8764,7 +8723,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>161</v>
       </c>
@@ -8781,7 +8740,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>162</v>
       </c>
@@ -8798,7 +8757,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>163</v>
       </c>
@@ -8815,7 +8774,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>164</v>
       </c>
@@ -8832,7 +8791,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>165</v>
       </c>
@@ -8849,7 +8808,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>166</v>
       </c>
@@ -8866,7 +8825,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>167</v>
       </c>
@@ -8883,7 +8842,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>168</v>
       </c>
@@ -8900,7 +8859,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>169</v>
       </c>
@@ -8917,7 +8876,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>170</v>
       </c>
@@ -8934,7 +8893,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>171</v>
       </c>
@@ -8951,7 +8910,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>172</v>
       </c>
@@ -8968,7 +8927,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>173</v>
       </c>
@@ -8985,7 +8944,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>174</v>
       </c>
@@ -9002,7 +8961,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>175</v>
       </c>
@@ -9019,7 +8978,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>176</v>
       </c>
@@ -9036,7 +8995,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>177</v>
       </c>
@@ -9053,7 +9012,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>178</v>
       </c>
@@ -9070,7 +9029,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>179</v>
       </c>
@@ -9087,7 +9046,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>180</v>
       </c>
@@ -9104,7 +9063,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>181</v>
       </c>
@@ -9121,7 +9080,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>182</v>
       </c>
@@ -9138,7 +9097,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>183</v>
       </c>
@@ -9155,7 +9114,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>184</v>
       </c>
@@ -9172,7 +9131,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>185</v>
       </c>
@@ -9189,7 +9148,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>186</v>
       </c>
@@ -9206,7 +9165,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>187</v>
       </c>
@@ -9223,7 +9182,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>188</v>
       </c>
@@ -9240,7 +9199,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>189</v>
       </c>
@@ -9257,7 +9216,10 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>1331</v>
+      </c>
       <c r="B219" t="s">
         <v>477</v>
       </c>
@@ -9267,14 +9229,11 @@
       <c r="E219" t="s">
         <v>1302</v>
       </c>
-      <c r="F219" t="s">
-        <v>1331</v>
-      </c>
-      <c r="G219" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7">
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>1332</v>
+      </c>
       <c r="B220" t="s">
         <v>478</v>
       </c>
@@ -9284,14 +9243,11 @@
       <c r="E220" t="s">
         <v>1302</v>
       </c>
-      <c r="F220" t="s">
-        <v>1332</v>
-      </c>
-      <c r="G220" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7">
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>1333</v>
+      </c>
       <c r="B221" t="s">
         <v>479</v>
       </c>
@@ -9301,14 +9257,11 @@
       <c r="E221" t="s">
         <v>1302</v>
       </c>
-      <c r="F221" t="s">
-        <v>1333</v>
-      </c>
-      <c r="G221" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7">
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>1334</v>
+      </c>
       <c r="B222" t="s">
         <v>480</v>
       </c>
@@ -9318,14 +9271,11 @@
       <c r="E222" t="s">
         <v>1302</v>
       </c>
-      <c r="F222" t="s">
-        <v>1334</v>
-      </c>
-      <c r="G222" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7">
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>1335</v>
+      </c>
       <c r="B223" t="s">
         <v>481</v>
       </c>
@@ -9335,14 +9285,11 @@
       <c r="E223" t="s">
         <v>1302</v>
       </c>
-      <c r="F223" t="s">
-        <v>1335</v>
-      </c>
-      <c r="G223" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7">
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>1336</v>
+      </c>
       <c r="B224" t="s">
         <v>482</v>
       </c>
@@ -9352,14 +9299,11 @@
       <c r="E224" t="s">
         <v>1302</v>
       </c>
-      <c r="F224" t="s">
-        <v>1336</v>
-      </c>
-      <c r="G224" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7">
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>1337</v>
+      </c>
       <c r="B225" t="s">
         <v>483</v>
       </c>
@@ -9369,14 +9313,11 @@
       <c r="E225" t="s">
         <v>1302</v>
       </c>
-      <c r="F225" t="s">
-        <v>1337</v>
-      </c>
-      <c r="G225" t="s">
-        <v>1417</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7">
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>1338</v>
+      </c>
       <c r="B226" t="s">
         <v>484</v>
       </c>
@@ -9386,14 +9327,11 @@
       <c r="E226" t="s">
         <v>1302</v>
       </c>
-      <c r="F226" t="s">
-        <v>1338</v>
-      </c>
-      <c r="G226" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7">
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>1339</v>
+      </c>
       <c r="B227" t="s">
         <v>485</v>
       </c>
@@ -9403,14 +9341,11 @@
       <c r="E227" t="s">
         <v>1302</v>
       </c>
-      <c r="F227" t="s">
-        <v>1339</v>
-      </c>
-      <c r="G227" t="s">
-        <v>1419</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7">
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>1340</v>
+      </c>
       <c r="B228" t="s">
         <v>486</v>
       </c>
@@ -9420,14 +9355,11 @@
       <c r="E228" t="s">
         <v>1302</v>
       </c>
-      <c r="F228" t="s">
-        <v>1340</v>
-      </c>
-      <c r="G228" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7">
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>1341</v>
+      </c>
       <c r="B229" t="s">
         <v>487</v>
       </c>
@@ -9437,14 +9369,11 @@
       <c r="E229" t="s">
         <v>1302</v>
       </c>
-      <c r="F229" t="s">
-        <v>1341</v>
-      </c>
-      <c r="G229" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7">
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>1342</v>
+      </c>
       <c r="B230" t="s">
         <v>488</v>
       </c>
@@ -9454,14 +9383,11 @@
       <c r="E230" t="s">
         <v>1302</v>
       </c>
-      <c r="F230" t="s">
-        <v>1342</v>
-      </c>
-      <c r="G230" t="s">
-        <v>1422</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7">
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>1343</v>
+      </c>
       <c r="B231" t="s">
         <v>489</v>
       </c>
@@ -9471,14 +9397,11 @@
       <c r="E231" t="s">
         <v>1302</v>
       </c>
-      <c r="F231" t="s">
-        <v>1343</v>
-      </c>
-      <c r="G231" t="s">
-        <v>1423</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7">
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>1344</v>
+      </c>
       <c r="B232" t="s">
         <v>490</v>
       </c>
@@ -9488,14 +9411,11 @@
       <c r="E232" t="s">
         <v>1302</v>
       </c>
-      <c r="F232" t="s">
-        <v>1344</v>
-      </c>
-      <c r="G232" t="s">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7">
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>1345</v>
+      </c>
       <c r="B233" t="s">
         <v>491</v>
       </c>
@@ -9505,14 +9425,11 @@
       <c r="E233" t="s">
         <v>1302</v>
       </c>
-      <c r="F233" t="s">
-        <v>1345</v>
-      </c>
-      <c r="G233" t="s">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7">
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>1346</v>
+      </c>
       <c r="B234" t="s">
         <v>492</v>
       </c>
@@ -9522,14 +9439,11 @@
       <c r="E234" t="s">
         <v>1302</v>
       </c>
-      <c r="F234" t="s">
-        <v>1346</v>
-      </c>
-      <c r="G234" t="s">
-        <v>1426</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7">
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>1347</v>
+      </c>
       <c r="B235" t="s">
         <v>493</v>
       </c>
@@ -9539,14 +9453,11 @@
       <c r="E235" t="s">
         <v>1302</v>
       </c>
-      <c r="F235" t="s">
-        <v>1347</v>
-      </c>
-      <c r="G235" t="s">
-        <v>1427</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7">
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>1348</v>
+      </c>
       <c r="B236" t="s">
         <v>494</v>
       </c>
@@ -9556,14 +9467,11 @@
       <c r="E236" t="s">
         <v>1302</v>
       </c>
-      <c r="F236" t="s">
-        <v>1348</v>
-      </c>
-      <c r="G236" t="s">
-        <v>1428</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7">
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>1349</v>
+      </c>
       <c r="B237" t="s">
         <v>495</v>
       </c>
@@ -9573,14 +9481,11 @@
       <c r="E237" t="s">
         <v>1302</v>
       </c>
-      <c r="F237" t="s">
-        <v>1349</v>
-      </c>
-      <c r="G237" t="s">
-        <v>1429</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7">
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>1350</v>
+      </c>
       <c r="B238" t="s">
         <v>496</v>
       </c>
@@ -9590,14 +9495,8 @@
       <c r="E238" t="s">
         <v>1302</v>
       </c>
-      <c r="F238" t="s">
-        <v>1350</v>
-      </c>
-      <c r="G238" t="s">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7">
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>190</v>
       </c>
@@ -9614,7 +9513,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>191</v>
       </c>
@@ -9631,7 +9530,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>192</v>
       </c>
@@ -9648,7 +9547,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>193</v>
       </c>
@@ -9665,7 +9564,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>194</v>
       </c>
@@ -9682,7 +9581,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>195</v>
       </c>
@@ -9699,7 +9598,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>196</v>
       </c>
@@ -9716,7 +9615,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>197</v>
       </c>
@@ -9733,7 +9632,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>198</v>
       </c>
@@ -9750,7 +9649,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>199</v>
       </c>
@@ -9767,7 +9666,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>200</v>
       </c>
@@ -9784,7 +9683,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>201</v>
       </c>
@@ -9801,7 +9700,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>202</v>
       </c>
@@ -9818,7 +9717,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>203</v>
       </c>
@@ -9835,7 +9734,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>204</v>
       </c>
@@ -9852,7 +9751,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>205</v>
       </c>
@@ -9869,7 +9768,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>206</v>
       </c>
@@ -9886,7 +9785,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>207</v>
       </c>
@@ -9903,7 +9802,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>208</v>
       </c>
@@ -9920,7 +9819,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>209</v>
       </c>
@@ -9937,7 +9836,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>210</v>
       </c>
@@ -9954,7 +9853,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>211</v>
       </c>
@@ -9971,7 +9870,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>212</v>
       </c>
@@ -9988,7 +9887,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>213</v>
       </c>
@@ -10005,7 +9904,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>214</v>
       </c>
@@ -10022,7 +9921,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>215</v>
       </c>
@@ -10039,7 +9938,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>216</v>
       </c>
@@ -10056,7 +9955,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>217</v>
       </c>
@@ -10073,7 +9972,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>218</v>
       </c>
@@ -10090,7 +9989,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>219</v>
       </c>
@@ -10107,7 +10006,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>220</v>
       </c>
@@ -10124,7 +10023,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>221</v>
       </c>
@@ -10141,7 +10040,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>222</v>
       </c>
@@ -10158,7 +10057,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>223</v>
       </c>
@@ -10175,7 +10074,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>224</v>
       </c>
@@ -10192,7 +10091,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>225</v>
       </c>
@@ -10209,7 +10108,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>226</v>
       </c>
@@ -10226,7 +10125,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>227</v>
       </c>
@@ -10243,7 +10142,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>228</v>
       </c>
@@ -10260,7 +10159,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>229</v>
       </c>
@@ -10277,7 +10176,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>230</v>
       </c>
@@ -10294,7 +10193,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>231</v>
       </c>
@@ -10311,7 +10210,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>232</v>
       </c>
@@ -10328,7 +10227,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>233</v>
       </c>
@@ -10345,7 +10244,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>234</v>
       </c>
@@ -10362,7 +10261,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>46</v>
       </c>
@@ -10379,7 +10278,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>49</v>
       </c>
@@ -10396,7 +10295,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>235</v>
       </c>
@@ -10413,7 +10312,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>51</v>
       </c>
@@ -10430,7 +10329,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>236</v>
       </c>
@@ -10447,7 +10346,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>237</v>
       </c>
@@ -10464,7 +10363,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>238</v>
       </c>
@@ -10481,7 +10380,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>239</v>
       </c>
@@ -10498,7 +10397,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>240</v>
       </c>
@@ -10515,7 +10414,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>241</v>
       </c>
@@ -10532,7 +10431,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>165</v>
       </c>
@@ -10549,7 +10448,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>242</v>
       </c>
@@ -10566,7 +10465,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>243</v>
       </c>
@@ -10583,7 +10482,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>163</v>
       </c>
@@ -10600,7 +10499,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>244</v>
       </c>
@@ -10617,347 +10516,347 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>1351</v>
+      </c>
       <c r="B299" t="s">
         <v>549</v>
       </c>
+      <c r="C299" t="s">
+        <v>1411</v>
+      </c>
       <c r="D299" t="s">
         <v>1221</v>
       </c>
       <c r="E299" t="s">
         <v>1306</v>
       </c>
-      <c r="F299" t="s">
-        <v>1351</v>
-      </c>
-      <c r="G299" t="s">
-        <v>1431</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7">
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>1352</v>
+      </c>
       <c r="B300" t="s">
         <v>550</v>
       </c>
+      <c r="C300" t="s">
+        <v>1412</v>
+      </c>
       <c r="D300" t="s">
         <v>1222</v>
       </c>
       <c r="E300" t="s">
         <v>1306</v>
       </c>
-      <c r="F300" t="s">
-        <v>1352</v>
-      </c>
-      <c r="G300" t="s">
-        <v>1432</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7">
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>1353</v>
+      </c>
       <c r="B301" t="s">
         <v>551</v>
       </c>
+      <c r="C301" t="s">
+        <v>1413</v>
+      </c>
       <c r="D301" t="s">
         <v>1223</v>
       </c>
       <c r="E301" t="s">
         <v>1306</v>
       </c>
-      <c r="F301" t="s">
-        <v>1353</v>
-      </c>
-      <c r="G301" t="s">
-        <v>1433</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7">
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>1354</v>
+      </c>
       <c r="B302" t="s">
         <v>552</v>
       </c>
+      <c r="C302" t="s">
+        <v>1414</v>
+      </c>
       <c r="D302" t="s">
         <v>1224</v>
       </c>
       <c r="E302" t="s">
         <v>1306</v>
       </c>
-      <c r="F302" t="s">
-        <v>1354</v>
-      </c>
-      <c r="G302" t="s">
-        <v>1434</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7">
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>1355</v>
+      </c>
       <c r="B303" t="s">
         <v>553</v>
       </c>
+      <c r="C303" t="s">
+        <v>1415</v>
+      </c>
       <c r="D303" t="s">
         <v>1225</v>
       </c>
       <c r="E303" t="s">
         <v>1306</v>
       </c>
-      <c r="F303" t="s">
-        <v>1355</v>
-      </c>
-      <c r="G303" t="s">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7">
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>1356</v>
+      </c>
       <c r="B304" t="s">
         <v>554</v>
       </c>
+      <c r="C304" t="s">
+        <v>1416</v>
+      </c>
       <c r="D304" t="s">
         <v>1226</v>
       </c>
       <c r="E304" t="s">
         <v>1306</v>
       </c>
-      <c r="F304" t="s">
-        <v>1356</v>
-      </c>
-      <c r="G304" t="s">
-        <v>1436</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7">
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>1357</v>
+      </c>
       <c r="B305" t="s">
         <v>555</v>
       </c>
+      <c r="C305" t="s">
+        <v>1417</v>
+      </c>
       <c r="D305" t="s">
         <v>1227</v>
       </c>
       <c r="E305" t="s">
         <v>1306</v>
       </c>
-      <c r="F305" t="s">
-        <v>1357</v>
-      </c>
-      <c r="G305" t="s">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7">
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>1358</v>
+      </c>
       <c r="B306" t="s">
         <v>556</v>
       </c>
+      <c r="C306" t="s">
+        <v>1418</v>
+      </c>
       <c r="D306" t="s">
         <v>1228</v>
       </c>
       <c r="E306" t="s">
         <v>1306</v>
       </c>
-      <c r="F306" t="s">
-        <v>1358</v>
-      </c>
-      <c r="G306" t="s">
-        <v>1438</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7">
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>1359</v>
+      </c>
       <c r="B307" t="s">
         <v>557</v>
       </c>
+      <c r="C307" t="s">
+        <v>1419</v>
+      </c>
       <c r="D307" t="s">
         <v>1229</v>
       </c>
       <c r="E307" t="s">
         <v>1306</v>
       </c>
-      <c r="F307" t="s">
-        <v>1359</v>
-      </c>
-      <c r="G307" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7">
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>1360</v>
+      </c>
       <c r="B308" t="s">
         <v>558</v>
       </c>
+      <c r="C308" t="s">
+        <v>1420</v>
+      </c>
       <c r="D308" t="s">
         <v>1230</v>
       </c>
       <c r="E308" t="s">
         <v>1306</v>
       </c>
-      <c r="F308" t="s">
-        <v>1360</v>
-      </c>
-      <c r="G308" t="s">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7">
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>1361</v>
+      </c>
       <c r="B309" t="s">
         <v>559</v>
       </c>
+      <c r="C309" t="s">
+        <v>1421</v>
+      </c>
       <c r="D309" t="s">
         <v>1231</v>
       </c>
       <c r="E309" t="s">
         <v>1306</v>
       </c>
-      <c r="F309" t="s">
-        <v>1361</v>
-      </c>
-      <c r="G309" t="s">
-        <v>1441</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7">
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>1362</v>
+      </c>
       <c r="B310" t="s">
         <v>560</v>
       </c>
+      <c r="C310" t="s">
+        <v>1422</v>
+      </c>
       <c r="D310" t="s">
         <v>1232</v>
       </c>
       <c r="E310" t="s">
         <v>1306</v>
       </c>
-      <c r="F310" t="s">
-        <v>1362</v>
-      </c>
-      <c r="G310" t="s">
-        <v>1442</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7">
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>1363</v>
+      </c>
       <c r="B311" t="s">
         <v>561</v>
       </c>
+      <c r="C311" t="s">
+        <v>1423</v>
+      </c>
       <c r="D311" t="s">
         <v>1233</v>
       </c>
       <c r="E311" t="s">
         <v>1306</v>
       </c>
-      <c r="F311" t="s">
-        <v>1363</v>
-      </c>
-      <c r="G311" t="s">
-        <v>1443</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7">
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>1364</v>
+      </c>
       <c r="B312" t="s">
         <v>562</v>
       </c>
+      <c r="C312" t="s">
+        <v>1424</v>
+      </c>
       <c r="D312" t="s">
         <v>1234</v>
       </c>
       <c r="E312" t="s">
         <v>1306</v>
       </c>
-      <c r="F312" t="s">
-        <v>1364</v>
-      </c>
-      <c r="G312" t="s">
-        <v>1444</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7">
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>1365</v>
+      </c>
       <c r="B313" t="s">
         <v>563</v>
       </c>
+      <c r="C313" t="s">
+        <v>1425</v>
+      </c>
       <c r="D313" t="s">
         <v>1235</v>
       </c>
       <c r="E313" t="s">
         <v>1306</v>
       </c>
-      <c r="F313" t="s">
-        <v>1365</v>
-      </c>
-      <c r="G313" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7">
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>1366</v>
+      </c>
       <c r="B314" t="s">
         <v>564</v>
       </c>
+      <c r="C314" t="s">
+        <v>1426</v>
+      </c>
       <c r="D314" t="s">
         <v>1236</v>
       </c>
       <c r="E314" t="s">
         <v>1306</v>
       </c>
-      <c r="F314" t="s">
-        <v>1366</v>
-      </c>
-      <c r="G314" t="s">
-        <v>1446</v>
-      </c>
-    </row>
-    <row r="315" spans="1:7">
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>1367</v>
+      </c>
       <c r="B315" t="s">
         <v>565</v>
       </c>
+      <c r="C315" t="s">
+        <v>1427</v>
+      </c>
       <c r="D315" t="s">
         <v>1237</v>
       </c>
       <c r="E315" t="s">
         <v>1306</v>
       </c>
-      <c r="F315" t="s">
-        <v>1367</v>
-      </c>
-      <c r="G315" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7">
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>1368</v>
+      </c>
       <c r="B316" t="s">
         <v>566</v>
       </c>
+      <c r="C316" t="s">
+        <v>1428</v>
+      </c>
       <c r="D316" t="s">
         <v>1238</v>
       </c>
       <c r="E316" t="s">
         <v>1306</v>
       </c>
-      <c r="F316" t="s">
-        <v>1368</v>
-      </c>
-      <c r="G316" t="s">
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7">
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>1369</v>
+      </c>
       <c r="B317" t="s">
         <v>567</v>
       </c>
+      <c r="C317" t="s">
+        <v>1429</v>
+      </c>
       <c r="D317" t="s">
         <v>1239</v>
       </c>
       <c r="E317" t="s">
         <v>1306</v>
       </c>
-      <c r="F317" t="s">
-        <v>1369</v>
-      </c>
-      <c r="G317" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="318" spans="1:7">
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>1370</v>
+      </c>
       <c r="B318" t="s">
         <v>568</v>
       </c>
+      <c r="C318" t="s">
+        <v>1430</v>
+      </c>
       <c r="D318" t="s">
         <v>1240</v>
       </c>
       <c r="E318" t="s">
         <v>1306</v>
       </c>
-      <c r="F318" t="s">
-        <v>1370</v>
-      </c>
-      <c r="G318" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7">
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>245</v>
       </c>
@@ -10974,7 +10873,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>246</v>
       </c>
@@ -10991,7 +10890,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>247</v>
       </c>
@@ -11008,7 +10907,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>248</v>
       </c>
@@ -11025,7 +10924,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>249</v>
       </c>
@@ -11042,7 +10941,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>250</v>
       </c>
@@ -11059,7 +10958,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>103</v>
       </c>
@@ -11076,7 +10975,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>251</v>
       </c>
@@ -11093,7 +10992,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>252</v>
       </c>
@@ -11110,7 +11009,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>253</v>
       </c>
@@ -11127,7 +11026,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>254</v>
       </c>
@@ -11144,7 +11043,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>255</v>
       </c>
@@ -11161,7 +11060,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>256</v>
       </c>
@@ -11178,7 +11077,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>257</v>
       </c>
@@ -11195,7 +11094,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>258</v>
       </c>
@@ -11212,7 +11111,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>259</v>
       </c>
@@ -11229,7 +11128,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>260</v>
       </c>
@@ -11246,7 +11145,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>261</v>
       </c>
@@ -11263,7 +11162,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="337" spans="1:6">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>262</v>
       </c>
@@ -11280,7 +11179,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="338" spans="1:6">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>263</v>
       </c>
@@ -11297,7 +11196,10 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="339" spans="1:6">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>1371</v>
+      </c>
       <c r="B339" t="s">
         <v>587</v>
       </c>
@@ -11310,11 +11212,11 @@
       <c r="E339" t="s">
         <v>1308</v>
       </c>
-      <c r="F339" t="s">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6">
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>1372</v>
+      </c>
       <c r="B340" t="s">
         <v>588</v>
       </c>
@@ -11327,11 +11229,11 @@
       <c r="E340" t="s">
         <v>1308</v>
       </c>
-      <c r="F340" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6">
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>1373</v>
+      </c>
       <c r="B341" t="s">
         <v>589</v>
       </c>
@@ -11344,11 +11246,11 @@
       <c r="E341" t="s">
         <v>1308</v>
       </c>
-      <c r="F341" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6">
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>1374</v>
+      </c>
       <c r="B342" t="s">
         <v>590</v>
       </c>
@@ -11361,11 +11263,11 @@
       <c r="E342" t="s">
         <v>1308</v>
       </c>
-      <c r="F342" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6">
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>1375</v>
+      </c>
       <c r="B343" t="s">
         <v>591</v>
       </c>
@@ -11378,11 +11280,11 @@
       <c r="E343" t="s">
         <v>1308</v>
       </c>
-      <c r="F343" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6">
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>1376</v>
+      </c>
       <c r="B344" t="s">
         <v>592</v>
       </c>
@@ -11395,11 +11297,11 @@
       <c r="E344" t="s">
         <v>1308</v>
       </c>
-      <c r="F344" t="s">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6">
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>1377</v>
+      </c>
       <c r="B345" t="s">
         <v>593</v>
       </c>
@@ -11412,11 +11314,11 @@
       <c r="E345" t="s">
         <v>1308</v>
       </c>
-      <c r="F345" t="s">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6">
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>1378</v>
+      </c>
       <c r="B346" t="s">
         <v>594</v>
       </c>
@@ -11429,11 +11331,11 @@
       <c r="E346" t="s">
         <v>1308</v>
       </c>
-      <c r="F346" t="s">
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6">
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>1379</v>
+      </c>
       <c r="B347" t="s">
         <v>595</v>
       </c>
@@ -11446,11 +11348,11 @@
       <c r="E347" t="s">
         <v>1308</v>
       </c>
-      <c r="F347" t="s">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6">
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>1380</v>
+      </c>
       <c r="B348" t="s">
         <v>596</v>
       </c>
@@ -11463,11 +11365,11 @@
       <c r="E348" t="s">
         <v>1308</v>
       </c>
-      <c r="F348" t="s">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6">
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>1381</v>
+      </c>
       <c r="B349" t="s">
         <v>597</v>
       </c>
@@ -11480,11 +11382,11 @@
       <c r="E349" t="s">
         <v>1308</v>
       </c>
-      <c r="F349" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6">
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>1382</v>
+      </c>
       <c r="B350" t="s">
         <v>598</v>
       </c>
@@ -11497,11 +11399,11 @@
       <c r="E350" t="s">
         <v>1308</v>
       </c>
-      <c r="F350" t="s">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6">
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>1383</v>
+      </c>
       <c r="B351" t="s">
         <v>599</v>
       </c>
@@ -11514,11 +11416,11 @@
       <c r="E351" t="s">
         <v>1308</v>
       </c>
-      <c r="F351" t="s">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6">
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>1384</v>
+      </c>
       <c r="B352" t="s">
         <v>600</v>
       </c>
@@ -11531,11 +11433,11 @@
       <c r="E352" t="s">
         <v>1308</v>
       </c>
-      <c r="F352" t="s">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="353" spans="2:6">
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>1385</v>
+      </c>
       <c r="B353" t="s">
         <v>601</v>
       </c>
@@ -11548,11 +11450,11 @@
       <c r="E353" t="s">
         <v>1308</v>
       </c>
-      <c r="F353" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="354" spans="2:6">
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>1386</v>
+      </c>
       <c r="B354" t="s">
         <v>602</v>
       </c>
@@ -11565,11 +11467,11 @@
       <c r="E354" t="s">
         <v>1308</v>
       </c>
-      <c r="F354" t="s">
-        <v>1386</v>
-      </c>
-    </row>
-    <row r="355" spans="2:6">
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>1387</v>
+      </c>
       <c r="B355" t="s">
         <v>603</v>
       </c>
@@ -11582,11 +11484,11 @@
       <c r="E355" t="s">
         <v>1308</v>
       </c>
-      <c r="F355" t="s">
-        <v>1387</v>
-      </c>
-    </row>
-    <row r="356" spans="2:6">
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>1388</v>
+      </c>
       <c r="B356" t="s">
         <v>604</v>
       </c>
@@ -11599,11 +11501,11 @@
       <c r="E356" t="s">
         <v>1308</v>
       </c>
-      <c r="F356" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="357" spans="2:6">
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>1389</v>
+      </c>
       <c r="B357" t="s">
         <v>605</v>
       </c>
@@ -11616,11 +11518,11 @@
       <c r="E357" t="s">
         <v>1308</v>
       </c>
-      <c r="F357" t="s">
-        <v>1389</v>
-      </c>
-    </row>
-    <row r="358" spans="2:6">
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>1390</v>
+      </c>
       <c r="B358" t="s">
         <v>606</v>
       </c>
@@ -11633,11 +11535,11 @@
       <c r="E358" t="s">
         <v>1308</v>
       </c>
-      <c r="F358" t="s">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="359" spans="2:6">
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>1391</v>
+      </c>
       <c r="B359" t="s">
         <v>607</v>
       </c>
@@ -11650,11 +11552,11 @@
       <c r="E359" t="s">
         <v>1309</v>
       </c>
-      <c r="F359" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="360" spans="2:6">
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>1392</v>
+      </c>
       <c r="B360" t="s">
         <v>608</v>
       </c>
@@ -11667,11 +11569,11 @@
       <c r="E360" t="s">
         <v>1309</v>
       </c>
-      <c r="F360" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="361" spans="2:6">
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>1393</v>
+      </c>
       <c r="B361" t="s">
         <v>609</v>
       </c>
@@ -11684,11 +11586,11 @@
       <c r="E361" t="s">
         <v>1309</v>
       </c>
-      <c r="F361" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="362" spans="2:6">
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>1394</v>
+      </c>
       <c r="B362" t="s">
         <v>610</v>
       </c>
@@ -11701,11 +11603,11 @@
       <c r="E362" t="s">
         <v>1309</v>
       </c>
-      <c r="F362" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="363" spans="2:6">
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>1395</v>
+      </c>
       <c r="B363" t="s">
         <v>611</v>
       </c>
@@ -11718,11 +11620,11 @@
       <c r="E363" t="s">
         <v>1309</v>
       </c>
-      <c r="F363" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="364" spans="2:6">
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>1396</v>
+      </c>
       <c r="B364" t="s">
         <v>607</v>
       </c>
@@ -11735,11 +11637,11 @@
       <c r="E364" t="s">
         <v>1309</v>
       </c>
-      <c r="F364" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="365" spans="2:6">
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>1397</v>
+      </c>
       <c r="B365" t="s">
         <v>608</v>
       </c>
@@ -11752,11 +11654,11 @@
       <c r="E365" t="s">
         <v>1309</v>
       </c>
-      <c r="F365" t="s">
-        <v>1397</v>
-      </c>
-    </row>
-    <row r="366" spans="2:6">
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>1398</v>
+      </c>
       <c r="B366" t="s">
         <v>609</v>
       </c>
@@ -11769,11 +11671,11 @@
       <c r="E366" t="s">
         <v>1309</v>
       </c>
-      <c r="F366" t="s">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="367" spans="2:6">
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>1399</v>
+      </c>
       <c r="B367" t="s">
         <v>610</v>
       </c>
@@ -11786,11 +11688,11 @@
       <c r="E367" t="s">
         <v>1309</v>
       </c>
-      <c r="F367" t="s">
-        <v>1399</v>
-      </c>
-    </row>
-    <row r="368" spans="2:6">
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>1400</v>
+      </c>
       <c r="B368" t="s">
         <v>611</v>
       </c>
@@ -11803,11 +11705,11 @@
       <c r="E368" t="s">
         <v>1309</v>
       </c>
-      <c r="F368" t="s">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="369" spans="1:6">
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>1401</v>
+      </c>
       <c r="B369" t="s">
         <v>607</v>
       </c>
@@ -11820,11 +11722,11 @@
       <c r="E369" t="s">
         <v>1309</v>
       </c>
-      <c r="F369" t="s">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="370" spans="1:6">
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>1402</v>
+      </c>
       <c r="B370" t="s">
         <v>608</v>
       </c>
@@ -11837,11 +11739,11 @@
       <c r="E370" t="s">
         <v>1309</v>
       </c>
-      <c r="F370" t="s">
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="371" spans="1:6">
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>1403</v>
+      </c>
       <c r="B371" t="s">
         <v>609</v>
       </c>
@@ -11854,11 +11756,11 @@
       <c r="E371" t="s">
         <v>1309</v>
       </c>
-      <c r="F371" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="372" spans="1:6">
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>1404</v>
+      </c>
       <c r="B372" t="s">
         <v>610</v>
       </c>
@@ -11871,11 +11773,11 @@
       <c r="E372" t="s">
         <v>1309</v>
       </c>
-      <c r="F372" t="s">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="373" spans="1:6">
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>1405</v>
+      </c>
       <c r="B373" t="s">
         <v>611</v>
       </c>
@@ -11888,11 +11790,11 @@
       <c r="E373" t="s">
         <v>1309</v>
       </c>
-      <c r="F373" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="374" spans="1:6">
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>1406</v>
+      </c>
       <c r="B374" t="s">
         <v>607</v>
       </c>
@@ -11905,11 +11807,11 @@
       <c r="E374" t="s">
         <v>1309</v>
       </c>
-      <c r="F374" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="375" spans="1:6">
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>1407</v>
+      </c>
       <c r="B375" t="s">
         <v>608</v>
       </c>
@@ -11922,11 +11824,11 @@
       <c r="E375" t="s">
         <v>1309</v>
       </c>
-      <c r="F375" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="376" spans="1:6">
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>1408</v>
+      </c>
       <c r="B376" t="s">
         <v>609</v>
       </c>
@@ -11939,11 +11841,11 @@
       <c r="E376" t="s">
         <v>1309</v>
       </c>
-      <c r="F376" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="377" spans="1:6">
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>1409</v>
+      </c>
       <c r="B377" t="s">
         <v>610</v>
       </c>
@@ -11956,11 +11858,11 @@
       <c r="E377" t="s">
         <v>1309</v>
       </c>
-      <c r="F377" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="378" spans="1:6">
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>1410</v>
+      </c>
       <c r="B378" t="s">
         <v>611</v>
       </c>
@@ -11973,11 +11875,8 @@
       <c r="E378" t="s">
         <v>1309</v>
       </c>
-      <c r="F378" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="379" spans="1:6">
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>264</v>
       </c>
@@ -11994,7 +11893,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="380" spans="1:6">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>265</v>
       </c>
@@ -12011,7 +11910,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="381" spans="1:6">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>266</v>
       </c>
@@ -12028,7 +11927,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="382" spans="1:6">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>267</v>
       </c>
@@ -12045,7 +11944,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="383" spans="1:6">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>268</v>
       </c>
@@ -12062,7 +11961,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="384" spans="1:6">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>269</v>
       </c>
@@ -12079,7 +11978,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="385" spans="1:5">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>76</v>
       </c>
@@ -12096,7 +11995,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="386" spans="1:5">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>77</v>
       </c>
@@ -12113,7 +12012,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="387" spans="1:5">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>270</v>
       </c>
@@ -12130,7 +12029,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="388" spans="1:5">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>271</v>
       </c>
@@ -12147,7 +12046,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="389" spans="1:5">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>272</v>
       </c>
@@ -12164,7 +12063,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="390" spans="1:5">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>79</v>
       </c>
@@ -12181,7 +12080,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="391" spans="1:5">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>160</v>
       </c>
@@ -12198,7 +12097,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="392" spans="1:5">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>163</v>
       </c>
@@ -12215,7 +12114,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="393" spans="1:5">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>162</v>
       </c>
@@ -12232,7 +12131,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="394" spans="1:5">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>164</v>
       </c>
@@ -12249,7 +12148,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="395" spans="1:5">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>165</v>
       </c>
@@ -12266,7 +12165,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="396" spans="1:5">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>273</v>
       </c>
@@ -12283,7 +12182,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="397" spans="1:5">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>274</v>
       </c>
@@ -12300,7 +12199,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="398" spans="1:5">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>275</v>
       </c>
